--- a/output/5Y_P14_KFSDIV.xlsx
+++ b/output/5Y_P14_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-31</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-28</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4004</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3877</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6367</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.0061</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.835</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.4216</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2404</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.382</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.9583</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2036</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9136</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.4338</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9657</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3568</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2487</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3991</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.5985</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.6955</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3398</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.8469</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.129</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.716</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.4613</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.6545</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-31</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-28</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -5250,10 +5253,10 @@
         <v>186190.8447</v>
       </c>
       <c r="K18" s="1">
-        <v>141104.3504</v>
+        <v>141127.606</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8208</v>
+        <v>12.8229</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -5303,10 +5306,10 @@
         <v>180425.2936</v>
       </c>
       <c r="K19" s="1">
-        <v>157814.26</v>
+        <v>157837.5156</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9353</v>
+        <v>12.9372</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -5356,10 +5359,10 @@
         <v>192421.2266</v>
       </c>
       <c r="K20" s="1">
-        <v>188588.6257</v>
+        <v>188611.8813</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8255</v>
+        <v>12.8271</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -5409,10 +5412,10 @@
         <v>202194.777</v>
       </c>
       <c r="K21" s="1">
-        <v>196501.3755</v>
+        <v>196524.6311</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8093</v>
+        <v>12.8108</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -5462,10 +5465,10 @@
         <v>227183.0307</v>
       </c>
       <c r="K22" s="1">
-        <v>206737.069</v>
+        <v>206760.3246</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7896</v>
+        <v>12.791</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -5515,10 +5518,10 @@
         <v>244523.1813</v>
       </c>
       <c r="K23" s="1">
-        <v>208618.7052</v>
+        <v>208641.9608</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7908</v>
+        <v>12.7922</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -5568,10 +5571,10 @@
         <v>263206.2145</v>
       </c>
       <c r="K24" s="1">
-        <v>211281.6777</v>
+        <v>211304.9333</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7979</v>
+        <v>12.7993</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -5621,10 +5624,10 @@
         <v>292999.5764</v>
       </c>
       <c r="K25" s="1">
-        <v>212593.2393</v>
+        <v>212616.4949</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8042</v>
+        <v>12.8056</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -5674,10 +5677,10 @@
         <v>315088.687</v>
       </c>
       <c r="K26" s="1">
-        <v>210214.2244</v>
+        <v>210246.9759</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7859</v>
+        <v>12.7879</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -5727,10 +5730,10 @@
         <v>300802.6745</v>
       </c>
       <c r="K27" s="1">
-        <v>208116.7345</v>
+        <v>208157.8653</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7641</v>
+        <v>12.7667</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -5780,10 +5783,10 @@
         <v>322765.3731</v>
       </c>
       <c r="K28" s="1">
-        <v>242540.204</v>
+        <v>242581.3348</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9138</v>
+        <v>12.916</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -5833,10 +5836,10 @@
         <v>334046.7882</v>
       </c>
       <c r="K29" s="1">
-        <v>247798.2019</v>
+        <v>247839.3327</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9378</v>
+        <v>12.94</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -5886,10 +5889,10 @@
         <v>342517.5243</v>
       </c>
       <c r="K30" s="1">
-        <v>256530.6735</v>
+        <v>256571.8043</v>
       </c>
       <c r="L30" s="1">
-        <v>12.9777</v>
+        <v>12.9798</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -5939,10 +5942,10 @@
         <v>386292.4255</v>
       </c>
       <c r="K31" s="1">
-        <v>268071.1548</v>
+        <v>268112.2856</v>
       </c>
       <c r="L31" s="1">
-        <v>13.024</v>
+        <v>13.026</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -5992,10 +5995,10 @@
         <v>396931.6244</v>
       </c>
       <c r="K32" s="1">
-        <v>253085.4271</v>
+        <v>253186.4548</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9077</v>
+        <v>12.9128</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -6045,10 +6048,10 @@
         <v>392385.7633</v>
       </c>
       <c r="K33" s="1">
-        <v>262483.7739</v>
+        <v>262584.8016</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9828</v>
+        <v>12.9878</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -6098,10 +6101,10 @@
         <v>438866.3474</v>
       </c>
       <c r="K34" s="1">
-        <v>287090.3547</v>
+        <v>287191.3824</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1123</v>
+        <v>13.1169</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -6151,10 +6154,10 @@
         <v>463992.326</v>
       </c>
       <c r="K35" s="1">
-        <v>278673.9241</v>
+        <v>278808.5807</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0512</v>
+        <v>13.0575</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -6204,10 +6207,10 @@
         <v>478834.624</v>
       </c>
       <c r="K36" s="1">
-        <v>273527.3951</v>
+        <v>273682.602</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0033</v>
+        <v>13.0107</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -6257,10 +6260,10 @@
         <v>517513.4798</v>
       </c>
       <c r="K37" s="1">
-        <v>278705.7674</v>
+        <v>278860.9743</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0543</v>
+        <v>13.0615</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -6310,10 +6313,10 @@
         <v>522933.5632</v>
       </c>
       <c r="K38" s="1">
-        <v>274186.9285</v>
+        <v>274360.1935</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0032</v>
+        <v>13.0114</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4004</v>
@@ -6363,10 +6366,10 @@
         <v>541140.478</v>
       </c>
       <c r="K39" s="1">
-        <v>288825.3184</v>
+        <v>288998.5834</v>
       </c>
       <c r="L39" s="1">
-        <v>13.1576</v>
+        <v>13.1655</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3877</v>
@@ -6416,10 +6419,10 @@
         <v>527592.3225</v>
       </c>
       <c r="K40" s="1">
-        <v>309620.6244</v>
+        <v>309793.8895</v>
       </c>
       <c r="L40" s="1">
-        <v>13.3362</v>
+        <v>13.3436</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6367</v>
@@ -6469,10 +6472,10 @@
         <v>518423.9718</v>
       </c>
       <c r="K41" s="1">
-        <v>343219.8764</v>
+        <v>343393.1415</v>
       </c>
       <c r="L41" s="1">
-        <v>13.5149</v>
+        <v>13.5217</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.0061</v>
@@ -6522,10 +6525,10 @@
         <v>483746.5207</v>
       </c>
       <c r="K42" s="1">
-        <v>372370.4666</v>
+        <v>372543.7316</v>
       </c>
       <c r="L42" s="1">
-        <v>13.5984</v>
+        <v>13.6047</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.835</v>
@@ -6575,10 +6578,10 @@
         <v>531978.6556000001</v>
       </c>
       <c r="K43" s="1">
-        <v>427150.4413</v>
+        <v>427323.7064</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5231</v>
+        <v>13.5285</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.4216</v>
@@ -6628,10 +6631,10 @@
         <v>559788.7995</v>
       </c>
       <c r="K44" s="1">
-        <v>410957.1151</v>
+        <v>411195.0941</v>
       </c>
       <c r="L44" s="1">
-        <v>13.51</v>
+        <v>13.5178</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2404</v>
@@ -6681,10 +6684,10 @@
         <v>534567.9252000001</v>
       </c>
       <c r="K45" s="1">
-        <v>403115.6607</v>
+        <v>403384.9502</v>
       </c>
       <c r="L45" s="1">
-        <v>13.4929</v>
+        <v>13.502</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.382</v>
@@ -6734,10 +6737,10 @@
         <v>526615.298</v>
       </c>
       <c r="K46" s="1">
-        <v>448517.9127</v>
+        <v>448787.2022</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4697</v>
+        <v>13.4778</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.9583</v>
@@ -6787,10 +6790,10 @@
         <v>521063.9659</v>
       </c>
       <c r="K47" s="1">
-        <v>487199.1803</v>
+        <v>487468.4697</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3787</v>
+        <v>13.3861</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2036</v>
@@ -6840,10 +6843,10 @@
         <v>540397.6147</v>
       </c>
       <c r="K48" s="1">
-        <v>512697.8044</v>
+        <v>512967.0939</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3016</v>
+        <v>13.3086</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9136</v>
@@ -6893,10 +6896,10 @@
         <v>591616.349</v>
       </c>
       <c r="K49" s="1">
-        <v>513264.4894</v>
+        <v>513533.7789</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3003</v>
+        <v>13.3073</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.4338</v>
@@ -6946,10 +6949,10 @@
         <v>620949.9824</v>
       </c>
       <c r="K50" s="1">
-        <v>495849.7627</v>
+        <v>496188.6331</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3134</v>
+        <v>13.3225</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9657</v>
@@ -6999,10 +7002,10 @@
         <v>613878.2507</v>
       </c>
       <c r="K51" s="1">
-        <v>486478.6748</v>
+        <v>486854.9997</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3106</v>
+        <v>13.3208</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3568</v>
@@ -7052,10 +7055,10 @@
         <v>648719.099</v>
       </c>
       <c r="K52" s="1">
-        <v>513658.9881</v>
+        <v>514035.3129</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2933</v>
+        <v>13.303</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2487</v>
@@ -7105,10 +7108,10 @@
         <v>654590.9229</v>
       </c>
       <c r="K53" s="1">
-        <v>508557.2172</v>
+        <v>508953.9361</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2924</v>
+        <v>13.3028</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3991</v>
@@ -7158,10 +7161,10 @@
         <v>670437.3938</v>
       </c>
       <c r="K54" s="1">
-        <v>522742.0248</v>
+        <v>523138.7437</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2919</v>
+        <v>13.302</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.5985</v>
@@ -7211,10 +7214,10 @@
         <v>702466.1789000001</v>
       </c>
       <c r="K55" s="1">
-        <v>526855.344</v>
+        <v>527252.0629</v>
       </c>
       <c r="L55" s="1">
-        <v>13.293</v>
+        <v>13.303</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.6955</v>
@@ -7264,10 +7267,10 @@
         <v>716309.3674</v>
       </c>
       <c r="K56" s="1">
-        <v>528976.6134</v>
+        <v>529373.3323</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2943</v>
+        <v>13.3042</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3398</v>
@@ -7317,10 +7320,10 @@
         <v>711999.6294</v>
       </c>
       <c r="K57" s="1">
-        <v>535149.6067</v>
+        <v>535546.3255</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2991</v>
+        <v>13.3089</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.8469</v>
@@ -7370,10 +7373,10 @@
         <v>712075.7351</v>
       </c>
       <c r="K58" s="1">
-        <v>559532.1034</v>
+        <v>559928.8223</v>
       </c>
       <c r="L58" s="1">
-        <v>13.302</v>
+        <v>13.3114</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.129</v>
@@ -7423,10 +7426,10 @@
         <v>734467.5138</v>
       </c>
       <c r="K59" s="1">
-        <v>590346.3429</v>
+        <v>590743.0617</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2789</v>
+        <v>13.2878</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.716</v>
@@ -7476,10 +7479,10 @@
         <v>726225.6247</v>
       </c>
       <c r="K60" s="1">
-        <v>587821.4281</v>
+        <v>588228.2425000001</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2794</v>
+        <v>13.2886</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.4613</v>
@@ -7529,10 +7532,10 @@
         <v>736246.0475</v>
       </c>
       <c r="K61" s="1">
-        <v>616176.5909</v>
+        <v>616583.4054</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2536</v>
+        <v>13.2624</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.6545</v>
@@ -7582,10 +7585,10 @@
         <v>755460.2317</v>
       </c>
       <c r="K62" s="1">
-        <v>638082.1725</v>
+        <v>638488.987</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2257</v>
+        <v>13.2342</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-31</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-28</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -8562,10 +8565,10 @@
         <v>186654.4133</v>
       </c>
       <c r="K18" s="1">
-        <v>146816.0716</v>
+        <v>146838.4782</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8466</v>
+        <v>12.8486</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -8615,10 +8618,10 @@
         <v>180227.5608</v>
       </c>
       <c r="K19" s="1">
-        <v>164616.0746</v>
+        <v>164638.4812</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9612</v>
+        <v>12.9629</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -8668,10 +8671,10 @@
         <v>192309.0464</v>
       </c>
       <c r="K20" s="1">
-        <v>197129.3267</v>
+        <v>197151.7333</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8456</v>
+        <v>12.847</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -8721,10 +8724,10 @@
         <v>202070.1782</v>
       </c>
       <c r="K21" s="1">
-        <v>205892.2645</v>
+        <v>205914.6711</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8275</v>
+        <v>12.8289</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -8774,10 +8777,10 @@
         <v>227771.8461</v>
       </c>
       <c r="K22" s="1">
-        <v>217134.9853</v>
+        <v>217157.3919</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8059</v>
+        <v>12.8072</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -8827,10 +8830,10 @@
         <v>245488.666</v>
       </c>
       <c r="K23" s="1">
-        <v>219670.3827</v>
+        <v>219692.7893</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8073</v>
+        <v>12.8086</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -8880,10 +8883,10 @@
         <v>264640.789</v>
       </c>
       <c r="K24" s="1">
-        <v>223061.1822</v>
+        <v>223083.5888</v>
       </c>
       <c r="L24" s="1">
-        <v>12.8156</v>
+        <v>12.8169</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -8933,10 +8936,10 @@
         <v>295539.4746</v>
       </c>
       <c r="K25" s="1">
-        <v>225063.2255</v>
+        <v>225085.6321</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8246</v>
+        <v>12.8259</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -8986,10 +8989,10 @@
         <v>318349.8795</v>
       </c>
       <c r="K26" s="1">
-        <v>223197.036</v>
+        <v>223226.8916</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8112</v>
+        <v>12.8129</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -9039,10 +9042,10 @@
         <v>302549.2796</v>
       </c>
       <c r="K27" s="1">
-        <v>221652.0568</v>
+        <v>221688.0844</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7962</v>
+        <v>12.7983</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -9092,10 +9095,10 @@
         <v>325268.1058</v>
       </c>
       <c r="K28" s="1">
-        <v>258929.4656</v>
+        <v>258965.4933</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9441</v>
+        <v>12.9459</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -9145,10 +9148,10 @@
         <v>336633.5057</v>
       </c>
       <c r="K29" s="1">
-        <v>265266.4217</v>
+        <v>265302.4494</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9706</v>
+        <v>12.9723</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -9198,10 +9201,10 @@
         <v>344993.4333</v>
       </c>
       <c r="K30" s="1">
-        <v>275357.5461</v>
+        <v>275393.5738</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0125</v>
+        <v>13.0142</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -9251,10 +9254,10 @@
         <v>391215.1182</v>
       </c>
       <c r="K31" s="1">
-        <v>288508.5684</v>
+        <v>288544.596</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0602</v>
+        <v>13.0618</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -9304,10 +9307,10 @@
         <v>401902.8966</v>
       </c>
       <c r="K32" s="1">
-        <v>273252.0367</v>
+        <v>273349.0436</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9519</v>
+        <v>12.9565</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -9357,10 +9360,10 @@
         <v>396208.1488</v>
       </c>
       <c r="K33" s="1">
-        <v>284222.0837</v>
+        <v>284319.0906</v>
       </c>
       <c r="L33" s="1">
-        <v>13.0317</v>
+        <v>13.0361</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -9410,10 +9413,10 @@
         <v>445609.0407</v>
       </c>
       <c r="K34" s="1">
-        <v>311654.6284</v>
+        <v>311751.6354</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1613</v>
+        <v>13.1654</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -9463,10 +9466,10 @@
         <v>472010.0325</v>
       </c>
       <c r="K35" s="1">
-        <v>303471.0026</v>
+        <v>303600.7082</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1077</v>
+        <v>13.1133</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -9516,10 +9519,10 @@
         <v>487273.9773</v>
       </c>
       <c r="K36" s="1">
-        <v>298840.6048</v>
+        <v>298988.7997</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0687</v>
+        <v>13.0752</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -9569,10 +9572,10 @@
         <v>528486.6382</v>
       </c>
       <c r="K37" s="1">
-        <v>305451.0756</v>
+        <v>305599.2706</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1273</v>
+        <v>13.1336</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -9622,10 +9625,10 @@
         <v>533482.3027</v>
       </c>
       <c r="K38" s="1">
-        <v>301538.774</v>
+        <v>301702.6033</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0875</v>
+        <v>13.0946</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4004</v>
@@ -9675,10 +9678,10 @@
         <v>552415.4644000001</v>
       </c>
       <c r="K39" s="1">
-        <v>318577.9782</v>
+        <v>318741.8075</v>
       </c>
       <c r="L39" s="1">
-        <v>13.2481</v>
+        <v>13.2549</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3877</v>
@@ -9728,10 +9731,10 @@
         <v>536548.4267</v>
       </c>
       <c r="K40" s="1">
-        <v>342434.9692</v>
+        <v>342598.7985</v>
       </c>
       <c r="L40" s="1">
-        <v>13.4294</v>
+        <v>13.4359</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6367</v>
@@ -9781,10 +9784,10 @@
         <v>525437.5054</v>
       </c>
       <c r="K41" s="1">
-        <v>380445.2583</v>
+        <v>380609.0875</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6048</v>
+        <v>13.6107</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.0061</v>
@@ -9834,10 +9837,10 @@
         <v>486110.6608</v>
       </c>
       <c r="K42" s="1">
-        <v>413684.3385</v>
+        <v>413848.1678</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6844</v>
+        <v>13.6898</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.835</v>
@@ -9887,10 +9890,10 @@
         <v>538387.5962</v>
       </c>
       <c r="K43" s="1">
-        <v>475332.7717</v>
+        <v>475496.601</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5961</v>
+        <v>13.6008</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.4216</v>
@@ -9940,10 +9943,10 @@
         <v>568151.1481</v>
       </c>
       <c r="K44" s="1">
-        <v>458615.2606</v>
+        <v>458845.8987</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5866</v>
+        <v>13.5934</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2404</v>
@@ -9993,10 +9996,10 @@
         <v>538966.2279000001</v>
       </c>
       <c r="K45" s="1">
-        <v>451152.2363</v>
+        <v>451412.6738</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5732</v>
+        <v>13.581</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.382</v>
@@ -10046,10 +10049,10 @@
         <v>528905.874</v>
       </c>
       <c r="K46" s="1">
-        <v>502936.0063</v>
+        <v>503196.4438</v>
       </c>
       <c r="L46" s="1">
-        <v>13.541</v>
+        <v>13.548</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.9583</v>
@@ -10099,10 +10102,10 @@
         <v>521509.8197</v>
       </c>
       <c r="K47" s="1">
-        <v>547387.0102</v>
+        <v>547647.4477</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4412</v>
+        <v>13.4476</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2036</v>
@@ -10152,10 +10155,10 @@
         <v>541969.7705</v>
       </c>
       <c r="K48" s="1">
-        <v>577240.909</v>
+        <v>577501.3464</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3571</v>
+        <v>13.3631</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9136</v>
@@ -10205,10 +10208,10 @@
         <v>598258.7663</v>
       </c>
       <c r="K49" s="1">
-        <v>579248.4327</v>
+        <v>579508.8700999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3528</v>
+        <v>13.3588</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.4338</v>
@@ -10258,10 +10261,10 @@
         <v>630048.5091</v>
       </c>
       <c r="K50" s="1">
-        <v>561078.2774</v>
+        <v>561411.3141</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3666</v>
+        <v>13.3746</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9657</v>
@@ -10311,10 +10314,10 @@
         <v>620758.0371</v>
       </c>
       <c r="K51" s="1">
-        <v>551956.97</v>
+        <v>552326.4629</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3651</v>
+        <v>13.374</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3568</v>
@@ -10364,10 +10367,10 @@
         <v>658865.7556</v>
       </c>
       <c r="K52" s="1">
-        <v>584144.4425</v>
+        <v>584513.9354</v>
       </c>
       <c r="L52" s="1">
-        <v>13.344</v>
+        <v>13.3524</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2487</v>
@@ -10417,10 +10420,10 @@
         <v>664176.7635999999</v>
       </c>
       <c r="K53" s="1">
-        <v>579873.8884000001</v>
+        <v>580260.4526</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3437</v>
+        <v>13.3526</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3991</v>
@@ -10470,10 +10473,10 @@
         <v>680828.7759</v>
       </c>
       <c r="K54" s="1">
-        <v>597529.7894</v>
+        <v>597916.3535</v>
       </c>
       <c r="L54" s="1">
-        <v>13.3416</v>
+        <v>13.3503</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.5985</v>
@@ -10523,10 +10526,10 @@
         <v>715932.4405</v>
       </c>
       <c r="K55" s="1">
-        <v>603793.1943</v>
+        <v>604179.7585</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3425</v>
+        <v>13.3511</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.6955</v>
@@ -10576,10 +10579,10 @@
         <v>730325.524</v>
       </c>
       <c r="K56" s="1">
-        <v>607829.6013</v>
+        <v>608216.1655</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3444</v>
+        <v>13.3528</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3398</v>
@@ -10629,10 +10632,10 @@
         <v>723895.1310000001</v>
       </c>
       <c r="K57" s="1">
-        <v>616546.0449</v>
+        <v>616932.6090000001</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3496</v>
+        <v>13.3579</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.8469</v>
@@ -10682,10 +10685,10 @@
         <v>722436.3008</v>
       </c>
       <c r="K58" s="1">
-        <v>646216.4542</v>
+        <v>646603.0183</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3503</v>
+        <v>13.3583</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.129</v>
@@ -10735,10 +10738,10 @@
         <v>746726.7812</v>
       </c>
       <c r="K59" s="1">
-        <v>683397.1629</v>
+        <v>683783.7271</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3234</v>
+        <v>13.331</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.716</v>
@@ -10788,10 +10791,10 @@
         <v>735625.1838999999</v>
       </c>
       <c r="K60" s="1">
-        <v>682241.7817000001</v>
+        <v>682632.9655</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3237</v>
+        <v>13.3314</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.4613</v>
@@ -10841,10 +10844,10 @@
         <v>745605.8472</v>
       </c>
       <c r="K61" s="1">
-        <v>716836.199</v>
+        <v>717227.3828</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2944</v>
+        <v>13.3017</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.6545</v>
@@ -10894,10 +10897,10 @@
         <v>766313.362</v>
       </c>
       <c r="K62" s="1">
-        <v>744072.9411000001</v>
+        <v>744464.1249000001</v>
       </c>
       <c r="L62" s="1">
-        <v>13.263</v>
+        <v>13.27</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-31</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-28</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -11874,10 +11877,10 @@
         <v>187009.4041</v>
       </c>
       <c r="K18" s="1">
-        <v>152906.376</v>
+        <v>152927.8095</v>
       </c>
       <c r="L18" s="1">
-        <v>12.8805</v>
+        <v>12.8824</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -11927,10 +11930,10 @@
         <v>179886.5064</v>
       </c>
       <c r="K19" s="1">
-        <v>171873.3514</v>
+        <v>171894.7848</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9943</v>
+        <v>12.9959</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -11980,10 +11983,10 @@
         <v>192008.7019</v>
       </c>
       <c r="K20" s="1">
-        <v>199844.5373</v>
+        <v>199865.9708</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8909</v>
+        <v>12.8923</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -12033,10 +12036,10 @@
         <v>201761.6375</v>
       </c>
       <c r="K21" s="1">
-        <v>209844.5373</v>
+        <v>209865.9708</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8685</v>
+        <v>12.8698</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -12086,10 +12089,10 @@
         <v>227661.9366</v>
       </c>
       <c r="K22" s="1">
-        <v>219844.5373</v>
+        <v>219865.9708</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8475</v>
+        <v>12.8487</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -12139,10 +12142,10 @@
         <v>245744.6245</v>
       </c>
       <c r="K23" s="1">
-        <v>231961.0904</v>
+        <v>231982.5239</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8516</v>
+        <v>12.8528</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -12192,10 +12195,10 @@
         <v>265398.1633</v>
       </c>
       <c r="K24" s="1">
-        <v>236170.6967</v>
+        <v>236192.1301</v>
       </c>
       <c r="L24" s="1">
-        <v>12.8607</v>
+        <v>12.8618</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -12245,10 +12248,10 @@
         <v>297481.0838</v>
       </c>
       <c r="K25" s="1">
-        <v>238958.6288</v>
+        <v>238980.0623</v>
       </c>
       <c r="L25" s="1">
-        <v>12.872</v>
+        <v>12.8731</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -12298,10 +12301,10 @@
         <v>321067.967</v>
       </c>
       <c r="K26" s="1">
-        <v>237694.8544</v>
+        <v>237721.3322</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8637</v>
+        <v>12.8651</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -12351,10 +12354,10 @@
         <v>303631.3793</v>
       </c>
       <c r="K27" s="1">
-        <v>236801.7497</v>
+        <v>236831.7954</v>
       </c>
       <c r="L27" s="1">
-        <v>12.8557</v>
+        <v>12.8573</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -12404,10 +12407,10 @@
         <v>327167.8265</v>
       </c>
       <c r="K28" s="1">
-        <v>277224.0686</v>
+        <v>277254.1144</v>
       </c>
       <c r="L28" s="1">
-        <v>12.9979</v>
+        <v>12.9993</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -12457,10 +12460,10 @@
         <v>338624.3055</v>
       </c>
       <c r="K29" s="1">
-        <v>284798.0073</v>
+        <v>284828.0531</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0262</v>
+        <v>13.0276</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -12510,10 +12513,10 @@
         <v>346863.0479</v>
       </c>
       <c r="K30" s="1">
-        <v>296439.8785</v>
+        <v>296469.9242</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0694</v>
+        <v>13.0707</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -12563,10 +12566,10 @@
         <v>395761.0899</v>
       </c>
       <c r="K31" s="1">
-        <v>311427.4112</v>
+        <v>311457.457</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1174</v>
+        <v>13.1187</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -12616,10 +12619,10 @@
         <v>406502.2388</v>
       </c>
       <c r="K32" s="1">
-        <v>295959.6367</v>
+        <v>296051.506</v>
       </c>
       <c r="L32" s="1">
-        <v>13.018</v>
+        <v>13.0221</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -12669,10 +12672,10 @@
         <v>399540.6598</v>
       </c>
       <c r="K33" s="1">
-        <v>308748.0659</v>
+        <v>308839.9352</v>
       </c>
       <c r="L33" s="1">
-        <v>13.1018</v>
+        <v>13.1057</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -12722,10 +12725,10 @@
         <v>452166.0223</v>
       </c>
       <c r="K34" s="1">
-        <v>339394.2142</v>
+        <v>339486.0835</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2298</v>
+        <v>13.2334</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -12775,10 +12778,10 @@
         <v>479982.1373</v>
       </c>
       <c r="K35" s="1">
-        <v>331573.4342</v>
+        <v>331696.5523</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1839</v>
+        <v>13.1888</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -12828,10 +12831,10 @@
         <v>495715.6601</v>
       </c>
       <c r="K36" s="1">
-        <v>327628.4676</v>
+        <v>327767.3383</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1542</v>
+        <v>13.1598</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -12881,10 +12884,10 @@
         <v>539754.6378</v>
       </c>
       <c r="K37" s="1">
-        <v>335953.9472</v>
+        <v>336092.8178</v>
       </c>
       <c r="L37" s="1">
-        <v>13.22</v>
+        <v>13.2255</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -12934,10 +12937,10 @@
         <v>544274.4014</v>
       </c>
       <c r="K38" s="1">
-        <v>332847.3739</v>
+        <v>332998.659</v>
       </c>
       <c r="L38" s="1">
-        <v>13.1918</v>
+        <v>13.1978</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4004</v>
@@ -12987,10 +12990,10 @@
         <v>564017.437</v>
       </c>
       <c r="K39" s="1">
-        <v>352714.6583</v>
+        <v>352865.9434</v>
       </c>
       <c r="L39" s="1">
-        <v>13.3577</v>
+        <v>13.3635</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3877</v>
@@ -13040,10 +13043,10 @@
         <v>545531.8809</v>
       </c>
       <c r="K40" s="1">
-        <v>380160.9187</v>
+        <v>380312.2038</v>
       </c>
       <c r="L40" s="1">
-        <v>13.5407</v>
+        <v>13.5461</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6367</v>
@@ -13093,10 +13096,10 @@
         <v>532219.7645</v>
       </c>
       <c r="K41" s="1">
-        <v>423304.3843</v>
+        <v>423455.6694</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7109</v>
+        <v>13.7158</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.0061</v>
@@ -13146,10 +13149,10 @@
         <v>487607.1861</v>
       </c>
       <c r="K42" s="1">
-        <v>461337.3248</v>
+        <v>461488.6099</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7849</v>
+        <v>13.7894</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.835</v>
@@ -13199,10 +13202,10 @@
         <v>544110.1627</v>
       </c>
       <c r="K43" s="1">
-        <v>524541.3899</v>
+        <v>524692.675</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6896</v>
+        <v>13.6936</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.4216</v>
@@ -13252,10 +13255,10 @@
         <v>576109.5024</v>
       </c>
       <c r="K44" s="1">
-        <v>514240.0388</v>
+        <v>514432.4915</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6862</v>
+        <v>13.6913</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2404</v>
@@ -13305,10 +13308,10 @@
         <v>542371.91</v>
       </c>
       <c r="K45" s="1">
-        <v>507401.2913</v>
+        <v>507621.0508</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6765</v>
+        <v>13.6824</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.382</v>
@@ -13358,10 +13361,10 @@
         <v>529877.0378</v>
       </c>
       <c r="K46" s="1">
-        <v>566715.6168</v>
+        <v>566935.3762000001</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6324</v>
+        <v>13.6377</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.9583</v>
@@ -13411,10 +13414,10 @@
         <v>521304.1582</v>
       </c>
       <c r="K47" s="1">
-        <v>592889.1231</v>
+        <v>593108.8824999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5732</v>
+        <v>13.5783</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2036</v>
@@ -13464,10 +13467,10 @@
         <v>542161.5442</v>
       </c>
       <c r="K48" s="1">
-        <v>602889.1231</v>
+        <v>603108.8824999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5434</v>
+        <v>13.5483</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9136</v>
@@ -13517,10 +13520,10 @@
         <v>600270.1592</v>
       </c>
       <c r="K49" s="1">
-        <v>612889.1231</v>
+        <v>613108.8824999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5197</v>
+        <v>13.5245</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.4338</v>
@@ -13570,10 +13573,10 @@
         <v>634742.6927</v>
       </c>
       <c r="K50" s="1">
-        <v>638914.6548</v>
+        <v>639134.4142</v>
       </c>
       <c r="L50" s="1">
-        <v>13.495</v>
+        <v>13.4997</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9657</v>
@@ -13623,10 +13626,10 @@
         <v>622850.8676999999</v>
       </c>
       <c r="K51" s="1">
-        <v>632494.6409</v>
+        <v>632740.0600000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4954</v>
+        <v>13.5006</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3568</v>
@@ -13676,10 +13679,10 @@
         <v>664485.0045</v>
       </c>
       <c r="K52" s="1">
-        <v>658888.9950999999</v>
+        <v>659134.4142</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4744</v>
+        <v>13.4795</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2487</v>
@@ -13729,10 +13732,10 @@
         <v>669096.818</v>
       </c>
       <c r="K53" s="1">
-        <v>668173.4789</v>
+        <v>668418.898</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4732</v>
+        <v>13.4781</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3991</v>
@@ -13782,10 +13785,10 @@
         <v>686701.9918</v>
       </c>
       <c r="K54" s="1">
-        <v>690223.3649</v>
+        <v>690468.784</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4668</v>
+        <v>13.4715</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.5985</v>
@@ -13835,10 +13838,10 @@
         <v>725451.6740999999</v>
       </c>
       <c r="K55" s="1">
-        <v>699343.4582</v>
+        <v>699588.8773000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4662</v>
+        <v>13.4709</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.6955</v>
@@ -13888,10 +13891,10 @@
         <v>740499.4552</v>
       </c>
       <c r="K56" s="1">
-        <v>705979.9129999999</v>
+        <v>706225.3321</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4677</v>
+        <v>13.4724</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3398</v>
@@ -13941,10 +13944,10 @@
         <v>731529.2979</v>
       </c>
       <c r="K57" s="1">
-        <v>718068.0125</v>
+        <v>718313.4316</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4719</v>
+        <v>13.4765</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.8469</v>
@@ -13994,10 +13997,10 @@
         <v>728399.3083</v>
       </c>
       <c r="K58" s="1">
-        <v>749994.6225000001</v>
+        <v>750240.0416</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4674</v>
+        <v>13.4718</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.129</v>
@@ -14047,10 +14050,10 @@
         <v>754511.9407</v>
       </c>
       <c r="K59" s="1">
-        <v>774385.9157</v>
+        <v>774631.3348</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4478</v>
+        <v>13.4521</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.716</v>
@@ -14100,10 +14103,10 @@
         <v>740428.1419</v>
       </c>
       <c r="K60" s="1">
-        <v>784385.9157</v>
+        <v>784631.3348</v>
       </c>
       <c r="L60" s="1">
-        <v>13.444</v>
+        <v>13.4482</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.4613</v>
@@ -14153,10 +14156,10 @@
         <v>751110.5331</v>
       </c>
       <c r="K61" s="1">
-        <v>794385.9157</v>
+        <v>794631.3348</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4347</v>
+        <v>13.4388</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.6545</v>
@@ -14206,10 +14209,10 @@
         <v>772805.4227999999</v>
       </c>
       <c r="K62" s="1">
-        <v>820138.9611</v>
+        <v>820384.3803</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4027</v>
+        <v>13.4067</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0976</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.8505</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8576</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5699</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5994</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-31</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6663</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.701</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8109</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-28</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.9322</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.5846</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2867</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0645</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8083</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5636</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.1788</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.5668</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.962</v>
@@ -15186,10 +15189,10 @@
         <v>187356.9982</v>
       </c>
       <c r="K18" s="1">
-        <v>159239.5656</v>
+        <v>159259.8914</v>
       </c>
       <c r="L18" s="1">
-        <v>12.9095</v>
+        <v>12.9111</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.2659</v>
@@ -15239,10 +15242,10 @@
         <v>179501.3996</v>
       </c>
       <c r="K19" s="1">
-        <v>179455.6533</v>
+        <v>179475.9791</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0228</v>
+        <v>13.0243</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.4103</v>
@@ -15292,10 +15295,10 @@
         <v>191647.9933</v>
       </c>
       <c r="K20" s="1">
-        <v>200269.1061</v>
+        <v>200289.4319</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9427</v>
+        <v>12.944</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.3976</v>
@@ -15345,10 +15348,10 @@
         <v>201401.2987</v>
       </c>
       <c r="K21" s="1">
-        <v>210269.1061</v>
+        <v>210289.4319</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9176</v>
+        <v>12.9188</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.9013</v>
@@ -15398,10 +15401,10 @@
         <v>227273.8519</v>
       </c>
       <c r="K22" s="1">
-        <v>220269.1061</v>
+        <v>220289.4319</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8942</v>
+        <v>12.8954</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3527</v>
@@ -15451,10 +15454,10 @@
         <v>245504.0982</v>
       </c>
       <c r="K23" s="1">
-        <v>237594.0919</v>
+        <v>237614.4177</v>
       </c>
       <c r="L23" s="1">
-        <v>12.8966</v>
+        <v>12.8977</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8804</v>
@@ -15504,10 +15507,10 @@
         <v>265559.219</v>
       </c>
       <c r="K24" s="1">
-        <v>247594.0919</v>
+        <v>247614.4177</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9155</v>
+        <v>12.9165</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6268</v>
@@ -15557,10 +15560,10 @@
         <v>298800.8402</v>
       </c>
       <c r="K25" s="1">
-        <v>254313.1698</v>
+        <v>254333.4955</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9399</v>
+        <v>12.9409</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3636</v>
@@ -15610,10 +15613,10 @@
         <v>323223.9151</v>
       </c>
       <c r="K26" s="1">
-        <v>253752.8817</v>
+        <v>253775.4439</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9365</v>
+        <v>12.9377</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8711</v>
@@ -15663,10 +15666,10 @@
         <v>304019.4765</v>
       </c>
       <c r="K27" s="1">
-        <v>253624.3213</v>
+        <v>253647.3971</v>
       </c>
       <c r="L27" s="1">
-        <v>12.9355</v>
+        <v>12.9367</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1252</v>
@@ -15716,10 +15719,10 @@
         <v>328421.9576</v>
       </c>
       <c r="K28" s="1">
-        <v>296218.0004</v>
+        <v>296241.0761</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0657</v>
+        <v>13.0667</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1934</v>
@@ -15769,10 +15772,10 @@
         <v>339971.9897</v>
       </c>
       <c r="K29" s="1">
-        <v>306527.0743</v>
+        <v>306550.15</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0996</v>
+        <v>13.1006</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1176</v>
@@ -15822,10 +15825,10 @@
         <v>348078.12</v>
       </c>
       <c r="K30" s="1">
-        <v>319937.4499</v>
+        <v>319960.5256</v>
       </c>
       <c r="L30" s="1">
-        <v>13.143</v>
+        <v>13.144</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3311</v>
@@ -15875,10 +15878,10 @@
         <v>399744.0615</v>
       </c>
       <c r="K31" s="1">
-        <v>335041.0936</v>
+        <v>335064.1694</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1852</v>
+        <v>13.1861</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-6</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3637</v>
@@ -15928,10 +15931,10 @@
         <v>410543.8844</v>
       </c>
       <c r="K32" s="1">
-        <v>321584.2889</v>
+        <v>321661.1505</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1075</v>
+        <v>13.1106</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6447</v>
@@ -15981,10 +15984,10 @@
         <v>402184.3757</v>
       </c>
       <c r="K33" s="1">
-        <v>336474.7546</v>
+        <v>336551.6163</v>
       </c>
       <c r="L33" s="1">
-        <v>13.1942</v>
+        <v>13.1972</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.486</v>
@@ -16034,10 +16037,10 @@
         <v>458372.8218</v>
       </c>
       <c r="K34" s="1">
-        <v>370777.0258</v>
+        <v>370853.8874</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3185</v>
+        <v>13.3212</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.1958</v>
@@ -16087,10 +16090,10 @@
         <v>487760.9402</v>
       </c>
       <c r="K35" s="1">
-        <v>363477.2039</v>
+        <v>363583.2328</v>
       </c>
       <c r="L35" s="1">
-        <v>13.2807</v>
+        <v>13.2845</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4264</v>
@@ -16140,10 +16143,10 @@
         <v>504017.9144</v>
       </c>
       <c r="K36" s="1">
-        <v>360421.6765</v>
+        <v>360539.9063</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2603</v>
+        <v>13.2646</v>
       </c>
       <c r="M36" s="1">
         <v>0.75</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>17.107</v>
@@ -16193,10 +16196,10 @@
         <v>551212.5762</v>
       </c>
       <c r="K37" s="1">
-        <v>370796.0771</v>
+        <v>370914.3069</v>
       </c>
       <c r="L37" s="1">
-        <v>13.3328</v>
+        <v>13.337</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.8894</v>
@@ -16246,10 +16249,10 @@
         <v>555198.1319</v>
       </c>
       <c r="K38" s="1">
-        <v>368737.496</v>
+        <v>368863.9523</v>
       </c>
       <c r="L38" s="1">
-        <v>13.3162</v>
+        <v>13.3208</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.4004</v>
@@ -16299,10 +16302,10 @@
         <v>575845.1239</v>
       </c>
       <c r="K39" s="1">
-        <v>391936.0026</v>
+        <v>392062.4589</v>
       </c>
       <c r="L39" s="1">
-        <v>13.4864</v>
+        <v>13.4907</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3877</v>
@@ -16352,10 +16355,10 @@
         <v>554399.0113</v>
       </c>
       <c r="K40" s="1">
-        <v>423592.4024</v>
+        <v>423718.8587</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6696</v>
+        <v>13.6737</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.6367</v>
@@ -16405,10 +16408,10 @@
         <v>538589.3323</v>
       </c>
       <c r="K41" s="1">
-        <v>472716.1955</v>
+        <v>472842.6518</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8326</v>
+        <v>13.8363</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.0061</v>
@@ -16458,10 +16461,10 @@
         <v>487959.125</v>
       </c>
       <c r="K42" s="1">
-        <v>516376.1671</v>
+        <v>516502.6234</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8994</v>
+        <v>13.9028</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.835</v>
@@ -16511,10 +16514,10 @@
         <v>546344.2389</v>
       </c>
       <c r="K43" s="1">
-        <v>532112.1109</v>
+        <v>532238.5672</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8721</v>
+        <v>13.8754</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.4216</v>
@@ -16564,10 +16567,10 @@
         <v>579824.7729</v>
       </c>
       <c r="K44" s="1">
-        <v>558830.0429999999</v>
+        <v>558956.4993</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8717</v>
+        <v>13.8748</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2404</v>
@@ -16617,10 +16620,10 @@
         <v>541476.1507999999</v>
       </c>
       <c r="K45" s="1">
-        <v>568830.0429999999</v>
+        <v>568956.4993</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8814</v>
+        <v>13.8845</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.382</v>
@@ -16670,10 +16673,10 @@
         <v>530436.8012</v>
       </c>
       <c r="K46" s="1">
-        <v>578830.0429999999</v>
+        <v>578956.4993</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8703</v>
+        <v>13.8734</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.9583</v>
@@ -16723,10 +16726,10 @@
         <v>521850.2579</v>
       </c>
       <c r="K47" s="1">
-        <v>603582.0401</v>
+        <v>603708.4963999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8036</v>
+        <v>13.8064</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.2036</v>
@@ -16776,10 +16779,10 @@
         <v>542718.8455000001</v>
       </c>
       <c r="K48" s="1">
-        <v>613582.0401</v>
+        <v>613708.4963999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7694</v>
+        <v>13.7723</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9136</v>
@@ -16829,10 +16832,10 @@
         <v>600876.358</v>
       </c>
       <c r="K49" s="1">
-        <v>623582.0401</v>
+        <v>623708.4963999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7417</v>
+        <v>13.7445</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.4338</v>
@@ -16882,10 +16885,10 @@
         <v>635373.2398</v>
       </c>
       <c r="K50" s="1">
-        <v>649624.0449</v>
+        <v>649750.5012000001</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7076</v>
+        <v>13.7103</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9657</v>
@@ -16935,10 +16938,10 @@
         <v>622849.6869</v>
       </c>
       <c r="K51" s="1">
-        <v>659624.0449</v>
+        <v>659750.5012000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7038</v>
+        <v>13.7064</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3568</v>
@@ -16988,10 +16991,10 @@
         <v>664893.3143</v>
       </c>
       <c r="K52" s="1">
-        <v>669624.0449</v>
+        <v>669750.5012000001</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6926</v>
+        <v>13.6952</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.2487</v>
@@ -17041,10 +17044,10 @@
         <v>669339.2334</v>
       </c>
       <c r="K53" s="1">
-        <v>692620.3366</v>
+        <v>692746.7929</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6821</v>
+        <v>13.6846</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3991</v>
@@ -17094,10 +17097,10 @@
         <v>687010.7966</v>
       </c>
       <c r="K54" s="1">
-        <v>702620.3366</v>
+        <v>702746.7929</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6761</v>
+        <v>13.6786</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.5985</v>
@@ -17147,10 +17150,10 @@
         <v>725838.0911</v>
       </c>
       <c r="K55" s="1">
-        <v>712620.3366</v>
+        <v>712746.7929</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6726</v>
+        <v>13.675</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.6955</v>
@@ -17200,10 +17203,10 @@
         <v>740972.0254</v>
       </c>
       <c r="K56" s="1">
-        <v>741115.5758</v>
+        <v>741242.0321</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6707</v>
+        <v>13.6731</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.3398</v>
@@ -17253,10 +17256,10 @@
         <v>731428.2187</v>
       </c>
       <c r="K57" s="1">
-        <v>751115.5758</v>
+        <v>751242.0321</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6714</v>
+        <v>13.6737</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.8469</v>
@@ -17306,10 +17309,10 @@
         <v>728828.9641</v>
       </c>
       <c r="K58" s="1">
-        <v>761115.5758</v>
+        <v>761242.0321</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6673</v>
+        <v>13.6696</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.129</v>
@@ -17359,10 +17362,10 @@
         <v>754949.2237</v>
       </c>
       <c r="K59" s="1">
-        <v>785949.5077</v>
+        <v>786075.964</v>
       </c>
       <c r="L59" s="1">
-        <v>13.6407</v>
+        <v>13.6429</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.716</v>
@@ -17412,10 +17415,10 @@
         <v>740851.6716999999</v>
       </c>
       <c r="K60" s="1">
-        <v>795949.5077</v>
+        <v>796075.964</v>
       </c>
       <c r="L60" s="1">
-        <v>13.6344</v>
+        <v>13.6366</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.4613</v>
@@ -17465,10 +17468,10 @@
         <v>751534.5901</v>
       </c>
       <c r="K61" s="1">
-        <v>805949.5077</v>
+        <v>806075.964</v>
       </c>
       <c r="L61" s="1">
-        <v>13.6226</v>
+        <v>13.6247</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.6545</v>
@@ -17518,10 +17521,10 @@
         <v>773236.0174</v>
       </c>
       <c r="K62" s="1">
-        <v>831711.564</v>
+        <v>831838.0203</v>
       </c>
       <c r="L62" s="1">
-        <v>13.5843</v>
+        <v>13.5863</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5635</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2257</v>
+        <v>13.2342</v>
       </c>
       <c r="E3" s="1">
-        <v>13.263</v>
+        <v>13.27</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4027</v>
+        <v>13.4067</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5843</v>
+        <v>13.5863</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>231838.0203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9311</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1832</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0293</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9296</v>
       </c>
     </row>
   </sheetData>
